--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_18-24.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_18-24.xlsx
@@ -119,9 +119,6 @@
     <t>DIGESTIN 20 TABLETS</t>
   </si>
   <si>
-    <t>DIVIDO 75MG 30 DUAL RELEASE CAPS.</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>FLACORT 30MG 20 TAB</t>
   </si>
   <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
     <t>GLUCOPHAGE XR 1000 MG 30 TABS.</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
   </si>
   <si>
     <t>METAPSIN 10 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
@@ -1354,13 +1345,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1380,17 +1371,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1406,17 +1397,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1438,11 +1429,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1464,7 +1455,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1484,17 +1475,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1502,7 +1493,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1510,17 +1501,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1528,7 +1519,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1536,17 +1527,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1568,7 +1559,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1588,17 +1579,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1606,7 +1597,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1614,17 +1605,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1632,7 +1623,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1640,17 +1631,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1658,7 +1649,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1666,17 +1657,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1684,7 +1675,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1692,13 +1683,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1710,7 +1701,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1718,13 +1709,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>57</v>
+        <v>23.039999999999999</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1744,17 +1735,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1762,7 +1753,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1770,17 +1761,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>135</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1788,7 +1779,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1802,7 +1793,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>23.039999999999999</v>
+        <v>56</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1814,7 +1805,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1822,17 +1813,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1840,7 +1831,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1848,17 +1839,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>37.600000000000001</v>
+        <v>86</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1866,7 +1857,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1874,17 +1865,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1892,7 +1883,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1900,13 +1891,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1918,7 +1909,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1926,17 +1917,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1944,7 +1935,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1952,17 +1943,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1970,7 +1961,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1984,7 +1975,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1996,7 +1987,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2004,17 +1995,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2022,7 +2013,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2030,17 +2021,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2048,7 +2039,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2062,7 +2053,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2074,7 +2065,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2082,17 +2073,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>15</v>
+        <v>-96</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2108,13 +2099,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>98</v>
+        <v>-25</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2126,7 +2117,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2134,13 +2125,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2152,7 +2143,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2160,13 +2151,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>-96</v>
+        <v>320</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2178,7 +2169,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2186,13 +2177,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2204,7 +2195,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2212,17 +2203,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2230,7 +2221,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2238,13 +2229,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2256,7 +2247,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2264,13 +2255,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2282,7 +2273,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2290,17 +2281,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2308,7 +2299,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2316,13 +2307,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2334,7 +2325,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2342,13 +2333,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2368,129 +2359,51 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="A62" s="6">
-        <v>59</v>
-      </c>
-      <c t="s" r="B62" s="7">
-        <v>91</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c t="s" r="H62" s="8">
-        <v>13</v>
-      </c>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9">
-        <v>20</v>
-      </c>
-      <c r="M62" s="9"/>
-      <c t="s" r="N62" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" ht="25.5" customHeight="1">
-      <c r="A63" s="6">
-        <v>60</v>
-      </c>
-      <c t="s" r="B63" s="7">
+    <row r="62" ht="26.25" customHeight="1">
+      <c r="K62" s="10">
+        <v>3599.6399999999999</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="11">
         <v>92</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c t="s" r="H63" s="8">
-        <v>19</v>
-      </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="9">
-        <v>30</v>
-      </c>
-      <c r="M63" s="9"/>
-      <c t="s" r="N63" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" ht="24.75" customHeight="1">
-      <c r="A64" s="6">
-        <v>61</v>
-      </c>
-      <c t="s" r="B64" s="7">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c t="s" r="F63" s="12">
         <v>93</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c t="s" r="H64" s="8">
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
+      <c t="s" r="I63" s="14">
         <v>94</v>
       </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="9">
-        <v>65</v>
-      </c>
-      <c r="M64" s="9"/>
-      <c t="s" r="N64" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" ht="26.25" customHeight="1">
-      <c r="K65" s="10">
-        <v>3837.6399999999999</v>
-      </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="11">
-        <v>95</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c t="s" r="F66" s="12">
-        <v>96</v>
-      </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="13"/>
-      <c t="s" r="I66" s="14">
-        <v>97</v>
-      </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="194">
+  <mergeCells count="185">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2672,19 +2585,10 @@
     <mergeCell ref="B61:G61"/>
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="I63:N63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
